--- a/ServiceApp/target/classes/Resources/TestData.xlsx
+++ b/ServiceApp/target/classes/Resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215"/>
+    <workbookView windowWidth="23040" windowHeight="9215" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t xml:space="preserve">LoginAccountPage </t>
   </si>
@@ -85,9 +85,18 @@
     <t>Good Morning</t>
   </si>
   <si>
+    <t>expectedMsg</t>
+  </si>
+  <si>
+    <t>This value is required</t>
+  </si>
+  <si>
     <t>Client Page</t>
   </si>
   <si>
+    <t>addingClientDetails</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -107,6 +116,12 @@
   </si>
   <si>
     <t>amalu123@gmail.com</t>
+  </si>
+  <si>
+    <t>clientShowButtonVerification</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
   <si>
     <t>InventoryPage</t>
@@ -159,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -194,6 +209,12 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
@@ -202,14 +223,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,16 +237,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,9 +258,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,6 +281,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -308,29 +322,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,187 +360,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,11 +556,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,6 +617,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -606,33 +643,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,46 +657,46 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,110 +705,107 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1118,8 +1130,8 @@
   <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
@@ -1160,7 +1172,7 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1182,10 +1194,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1207,7 +1219,7 @@
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="1">
         <v>12345</v>
       </c>
     </row>
@@ -1228,7 +1240,7 @@
       <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1246,6 +1258,14 @@
       </c>
       <c r="C9" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1260,43 +1280,47 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D5"/>
+  <dimension ref="A2:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="25.4444444444444" customWidth="1"/>
     <col min="4" max="4" width="19.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="3:4">
       <c r="C3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="3:4">
       <c r="C4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="3:4">
@@ -1304,7 +1328,18 @@
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1334,31 +1369,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1366,7 +1401,7 @@
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1374,7 +1409,7 @@
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -1382,7 +1417,7 @@
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1">
         <v>345</v>
@@ -1390,7 +1425,7 @@
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1">
         <v>22</v>
@@ -1398,18 +1433,18 @@
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/ServiceApp/target/classes/Resources/TestData.xlsx
+++ b/ServiceApp/target/classes/Resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9215" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t xml:space="preserve">LoginAccountPage </t>
   </si>
@@ -167,6 +167,18 @@
   </si>
   <si>
     <t>achu</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>×\nproduct_added</t>
+  </si>
+  <si>
+    <t>delectInventoryVerification</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -174,10 +186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -223,6 +235,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -231,35 +251,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,16 +281,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,14 +317,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -329,7 +334,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,7 +350,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,19 +372,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,49 +522,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,109 +546,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,24 +568,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,8 +619,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,167 +663,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1156,7 +1171,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1164,7 +1179,7 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1172,7 +1187,7 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1208,15 +1223,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="1">
@@ -1240,7 +1255,7 @@
       <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1264,7 +1279,7 @@
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1282,7 +1297,7 @@
   <sheetPr/>
   <dimension ref="A2:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1327,7 +1342,7 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1354,16 +1369,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="13.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="18.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="24.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1447,6 +1462,35 @@
         <v>49</v>
       </c>
     </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="2">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/ServiceApp/target/classes/Resources/TestData.xlsx
+++ b/ServiceApp/target/classes/Resources/TestData.xlsx
@@ -17,11 +17,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
   <si>
     <t xml:space="preserve">LoginAccountPage </t>
   </si>
   <si>
+    <t>loginAccountVerification</t>
+  </si>
+  <si>
     <t>loginDetails</t>
   </si>
   <si>
@@ -52,6 +55,33 @@
     <t>pass</t>
   </si>
   <si>
+    <t>loginWithWrongPassword</t>
+  </si>
+  <si>
+    <t>expectedMsg</t>
+  </si>
+  <si>
+    <t>Back to home page</t>
+  </si>
+  <si>
+    <t>forgotPasswordVerification</t>
+  </si>
+  <si>
+    <t>No record of that email address.</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>vyshnavyprakash1805@gmail.com</t>
+  </si>
+  <si>
+    <t>logoutVerification</t>
+  </si>
+  <si>
+    <t>Logged Out Successfully</t>
+  </si>
+  <si>
     <t>HomePage</t>
   </si>
   <si>
@@ -70,9 +100,6 @@
     <t>quickemailSentVerifiation</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>vyshanvyprakash1805@gmail.com</t>
   </si>
   <si>
@@ -85,16 +112,19 @@
     <t>Good Morning</t>
   </si>
   <si>
-    <t>expectedMsg</t>
-  </si>
-  <si>
     <t>This value is required</t>
   </si>
   <si>
+    <t>navigateToQualityAlertVerification</t>
+  </si>
+  <si>
+    <t>Ip013 Iphone 13 1.0000 2.0000</t>
+  </si>
+  <si>
     <t>Client Page</t>
   </si>
   <si>
-    <t>addingClientDetails</t>
+    <t>1.addingClientDetails</t>
   </si>
   <si>
     <t>Name</t>
@@ -103,6 +133,9 @@
     <t>Amalu</t>
   </si>
   <si>
+    <t>2.delectingClientDetails</t>
+  </si>
+  <si>
     <t>Company</t>
   </si>
   <si>
@@ -118,16 +151,28 @@
     <t>amalu123@gmail.com</t>
   </si>
   <si>
-    <t>clientShowButtonVerification</t>
+    <t>Client: Amalu</t>
+  </si>
+  <si>
+    <t>3.clientShowButtonVerification</t>
   </si>
   <si>
     <t>value</t>
   </si>
   <si>
+    <t>expectedNum</t>
+  </si>
+  <si>
+    <t>4.navigateToNextPageOnClickingNextOptionVerification</t>
+  </si>
+  <si>
+    <t>actualMsg</t>
+  </si>
+  <si>
     <t>InventoryPage</t>
   </si>
   <si>
-    <t>addInventoryProduct</t>
+    <t>1. addInventoryProduct</t>
   </si>
   <si>
     <t>productName</t>
@@ -175,10 +220,39 @@
     <t>×\nproduct_added</t>
   </si>
   <si>
-    <t>delectInventoryVerification</t>
+    <t>2. delectInventoryVerification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute </t>
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>Attribute value</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>3. navigateToNextPageOnClicki
+ngNextOptionVerification</t>
+  </si>
+  <si>
+    <t>showButtonNum</t>
+  </si>
+  <si>
+    <t>pageNum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.UserIsAbleToEditInventoryProductVerification
+</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>attributeValue</t>
   </si>
 </sst>
 </file>
@@ -186,12 +260,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,27 +274,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -229,12 +285,117 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -244,14 +405,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,81 +428,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -355,13 +441,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -372,187 +451,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,17 +642,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -619,8 +687,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,8 +696,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,6 +713,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,164 +745,168 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1143,20 +1226,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="14.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="41.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="18.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="24.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="14.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="41.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1166,37 +1250,81 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+    </row>
+    <row r="2" spans="3:4">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" t="s">
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
+    </row>
+    <row r="3" spans="3:4">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" t="s">
+      <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="5" spans="3:4">
       <c r="C5" t="s">
         <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1209,30 +1337,30 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="12.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="22.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="37.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="28.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>12</v>
+      <c r="A1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="4" t="s">
-        <v>13</v>
+      <c r="B2" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C2" s="1">
         <v>12345</v>
@@ -1240,47 +1368,55 @@
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>18</v>
+      <c r="C7" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1295,71 +1431,102 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D8"/>
+  <dimension ref="A2:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="25.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="19.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="30.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="13.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="26.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="3:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="3:4">
       <c r="C4" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
+      <c r="D5" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8">
+        <v>46</v>
+      </c>
+      <c r="D8" s="1">
         <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" ht="28.8" spans="2:4">
+      <c r="B11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="amalu123@gmail.com"/>
+    <hyperlink ref="D5" r:id="rId1" display="amalu123@gmail.com" tooltip="mailto:amalu123@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1369,46 +1536,46 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="13.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="24.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="40.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1416,7 +1583,7 @@
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1424,7 +1591,7 @@
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -1432,7 +1599,7 @@
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1">
         <v>345</v>
@@ -1440,7 +1607,7 @@
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1">
         <v>22</v>
@@ -1448,48 +1615,109 @@
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="2">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1">
         <v>126</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="2">
-        <v>108</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" ht="28.8" spans="2:2">
+      <c r="B19" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" ht="28.8" spans="2:2">
+      <c r="B23" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ServiceApp/target/classes/Resources/TestData.xlsx
+++ b/ServiceApp/target/classes/Resources/TestData.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9215" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="110">
   <si>
     <t xml:space="preserve">LoginAccountPage </t>
   </si>
@@ -64,6 +65,18 @@
     <t>Back to home page</t>
   </si>
   <si>
+    <t>loginWithWrongUserName</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>admin@admin</t>
+  </si>
+  <si>
+    <t>expectedUrl</t>
+  </si>
+  <si>
     <t>forgotPasswordVerification</t>
   </si>
   <si>
@@ -76,6 +89,12 @@
     <t>vyshnavyprakash1805@gmail.com</t>
   </si>
   <si>
+    <t>backToLoginVerification</t>
+  </si>
+  <si>
+    <t>https://qalegend.com/mobile_service//panel/login</t>
+  </si>
+  <si>
     <t>logoutVerification</t>
   </si>
   <si>
@@ -112,7 +131,7 @@
     <t>Good Morning</t>
   </si>
   <si>
-    <t>This value is required</t>
+    <t>This value is required.</t>
   </si>
   <si>
     <t>navigateToQualityAlertVerification</t>
@@ -121,6 +140,27 @@
     <t>Ip013 Iphone 13 1.0000 2.0000</t>
   </si>
   <si>
+    <t>navigateToInventoryPageVerification</t>
+  </si>
+  <si>
+    <t>expectedPageinventory</t>
+  </si>
+  <si>
+    <t>https://qalegend.com/mobile_service/panel/inventory</t>
+  </si>
+  <si>
+    <t>expectedPageclient</t>
+  </si>
+  <si>
+    <t>https://qalegend.com/mobile_service/panel/customers</t>
+  </si>
+  <si>
+    <t>expectedPagereperation</t>
+  </si>
+  <si>
+    <t>https://qalegend.com/mobile_service/panel/reparation</t>
+  </si>
+  <si>
     <t>Client Page</t>
   </si>
   <si>
@@ -154,6 +194,9 @@
     <t>Client: Amalu</t>
   </si>
   <si>
+    <t>vyshnavy3</t>
+  </si>
+  <si>
     <t>3.clientShowButtonVerification</t>
   </si>
   <si>
@@ -166,7 +209,10 @@
     <t>4.navigateToNextPageOnClickingNextOptionVerification</t>
   </si>
   <si>
-    <t>actualMsg</t>
+    <t>pageNum</t>
+  </si>
+  <si>
+    <t>5. addingClientDetailsWithoutClientName</t>
   </si>
   <si>
     <t>InventoryPage</t>
@@ -217,7 +263,7 @@
     <t>cost</t>
   </si>
   <si>
-    <t>×\nproduct_added</t>
+    <t>expectedPage</t>
   </si>
   <si>
     <t>2. delectInventoryVerification</t>
@@ -235,14 +281,11 @@
     <t>Home</t>
   </si>
   <si>
-    <t>3. navigateToNextPageOnClicki
-ngNextOptionVerification</t>
+    <t>3. navigateToNextPage On Clicking
+ Next OptionVerification</t>
   </si>
   <si>
     <t>showButtonNum</t>
-  </si>
-  <si>
-    <t>pageNum</t>
   </si>
   <si>
     <t xml:space="preserve">4.UserIsAbleToEditInventoryProductVerification
@@ -253,6 +296,61 @@
   </si>
   <si>
     <t>attributeValue</t>
+  </si>
+  <si>
+    <t>expectedAlertMsg</t>
+  </si>
+  <si>
+    <t>Product successfully updated</t>
+  </si>
+  <si>
+    <t>5.rowCountWithSameNameVerification</t>
+  </si>
+  <si>
+    <t>expectedNumber</t>
+  </si>
+  <si>
+    <t>searchName</t>
+  </si>
+  <si>
+    <t>LankyBox</t>
+  </si>
+  <si>
+    <t>6.navigateToNextPageOnClickingNextOptionVerification</t>
+  </si>
+  <si>
+    <t>7.exportFileWithoutSelectingProduct</t>
+  </si>
+  <si>
+    <t>×
+No product selected. Please select at least one product.</t>
+  </si>
+  <si>
+    <t>ReparationPage</t>
+  </si>
+  <si>
+    <t>1. rowNumberInShowButtonVerification</t>
+  </si>
+  <si>
+    <t>2. columnNumberVerification</t>
+  </si>
+  <si>
+    <t>expectedCount</t>
+  </si>
+  <si>
+    <t>3.columnVisibilityVerification</t>
+  </si>
+  <si>
+    <t>textContent</t>
+  </si>
+  <si>
+    <t>4. rowCountWithSameNameVerification</t>
+  </si>
+  <si>
+    <t>kiran1</t>
+  </si>
+  <si>
+    <t>5.totalCompletedRepairRows</t>
   </si>
 </sst>
 </file>
@@ -260,10 +358,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -272,17 +370,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -293,6 +380,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -315,6 +413,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -322,7 +427,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,24 +442,41 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -367,60 +489,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,6 +511,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -441,6 +532,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -451,187 +549,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,9 +793,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,17 +817,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -742,168 +831,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1226,10 +1337,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1237,7 +1348,7 @@
     <col min="1" max="1" width="18.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="24.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="14.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="41.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="44.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1258,7 +1369,7 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1266,7 +1377,7 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="14" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1274,7 +1385,7 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1293,7 +1404,7 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1302,32 +1413,76 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
         <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" t="s">
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="14" spans="3:4">
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D9" r:id="rId1" display="admin@admin"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
@@ -1337,91 +1492,120 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="37.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="28.6666666666667" customWidth="1"/>
+    <col min="2" max="3" width="37.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="45.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3">
-      <c r="B2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="1">
+    <row r="1" spans="1:3">
+      <c r="A1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1">
         <v>12345</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
+    <row r="3" spans="3:4">
       <c r="C3" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
       <c r="C8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" t="s">
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
+      <c r="D10" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
       <c r="C12" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" display="vyshanvyprakash1805@gmail.com"/>
+    <hyperlink ref="D7" r:id="rId1" display="vyshanvyprakash1805@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1431,59 +1615,59 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D11"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="30.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="35.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="13.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="26.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="3:4">
       <c r="C4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>43</v>
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="3:4">
@@ -1491,15 +1675,20 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1">
         <v>10</v>
@@ -1507,21 +1696,40 @@
     </row>
     <row r="9" spans="3:4">
       <c r="C9" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="11" ht="28.8" spans="2:4">
-      <c r="B11" s="4" t="s">
-        <v>48</v>
+      <c r="B11" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
-        <v>49</v>
+      <c r="D14" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1536,188 +1744,370 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A2:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="40.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="1" max="1" width="14.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="41.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="40.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="54.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="2"/>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="2"/>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="2"/>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="2"/>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="2"/>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="1">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="2"/>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="2"/>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="2"/>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="2"/>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="2"/>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="2"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="2"/>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="2"/>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="7"/>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="8"/>
+      <c r="B24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="7"/>
+      <c r="C25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" ht="28.8" spans="2:4">
+      <c r="B29" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" ht="24" spans="2:4">
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B24:B25"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D12" r:id="rId1" display="https://qalegend.com/mobile_service/panel/inventory"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="34.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="16.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
+        <v>104</v>
+      </c>
+      <c r="D3" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="1">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
       <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="1">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
+      <c r="D11" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
       <c r="C12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="1">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" ht="28.8" spans="2:2">
-      <c r="B19" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" ht="28.8" spans="2:2">
-      <c r="B23" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="5"/>
+        <v>104</v>
+      </c>
+      <c r="D12" s="1">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ServiceApp/target/classes/Resources/TestData.xlsx
+++ b/ServiceApp/target/classes/Resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9215" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="112">
   <si>
     <t xml:space="preserve">LoginAccountPage </t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>https://qalegend.com/mobile_service/panel/reparation</t>
+  </si>
+  <si>
+    <t>quickSMSFieldWithoutMsg</t>
   </si>
   <si>
     <t>Client Page</t>
@@ -347,10 +350,13 @@
     <t>4. rowCountWithSameNameVerification</t>
   </si>
   <si>
-    <t>kiran1</t>
+    <t>paru</t>
   </si>
   <si>
     <t>5.totalCompletedRepairRows</t>
+  </si>
+  <si>
+    <t>rowNumberInShowButtonVerificationForPendingRepairs</t>
   </si>
 </sst>
 </file>
@@ -358,10 +364,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -412,6 +418,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -426,8 +440,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,11 +487,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -488,6 +502,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,50 +545,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -555,55 +561,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,7 +723,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,109 +735,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,6 +746,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -754,15 +784,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,11 +814,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,174 +836,161 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1492,10 +1498,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1601,6 +1607,25 @@
       </c>
       <c r="D17" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="1">
+        <v>9061745171</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1617,7 +1642,7 @@
   <sheetPr/>
   <dimension ref="A2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1631,35 +1656,35 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="3:4">
       <c r="C4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="3:4">
@@ -1667,7 +1692,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="3:4">
@@ -1675,20 +1700,20 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1">
         <v>10</v>
@@ -1696,7 +1721,7 @@
     </row>
     <row r="9" spans="3:4">
       <c r="C9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1">
         <v>10</v>
@@ -1704,10 +1729,10 @@
     </row>
     <row r="11" ht="28.8" spans="2:4">
       <c r="B11" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -1715,7 +1740,7 @@
     </row>
     <row r="12" spans="3:4">
       <c r="C12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -1723,7 +1748,7 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -1760,31 +1785,31 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1793,7 +1818,7 @@
     <row r="5" spans="2:4">
       <c r="B5" s="2"/>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1802,7 +1827,7 @@
     <row r="6" spans="2:4">
       <c r="B6" s="2"/>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -1811,7 +1836,7 @@
     <row r="7" spans="2:4">
       <c r="B7" s="2"/>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7" s="1">
         <v>345</v>
@@ -1820,7 +1845,7 @@
     <row r="8" spans="2:4">
       <c r="B8" s="2"/>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D8" s="1">
         <v>22</v>
@@ -1829,25 +1854,25 @@
     <row r="9" spans="2:4">
       <c r="B9" s="2"/>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="2"/>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="2"/>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D11" s="1">
         <v>126</v>
@@ -1856,7 +1881,7 @@
     <row r="12" spans="2:4">
       <c r="B12" s="2"/>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>42</v>
@@ -1868,19 +1893,19 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="2"/>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D16" s="1">
         <v>117</v>
@@ -1892,7 +1917,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:2">
@@ -1904,10 +1929,10 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D20" s="1">
         <v>10</v>
@@ -1916,7 +1941,7 @@
     <row r="21" spans="2:4">
       <c r="B21" s="7"/>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
@@ -1929,19 +1954,19 @@
     <row r="24" spans="1:4">
       <c r="A24" s="8"/>
       <c r="B24" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="7"/>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D25" s="9">
         <v>123</v>
@@ -1949,18 +1974,18 @@
     </row>
     <row r="26" spans="3:4">
       <c r="C26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D27" s="1">
         <v>9</v>
@@ -1968,18 +1993,18 @@
     </row>
     <row r="28" spans="3:4">
       <c r="C28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" ht="28.8" spans="2:4">
       <c r="B29" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D29" s="1">
         <v>2</v>
@@ -1987,13 +2012,13 @@
     </row>
     <row r="31" ht="24" spans="2:4">
       <c r="B31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2014,39 +2039,47 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="34.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="47.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="16.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1">
         <v>25</v>
       </c>
     </row>
+    <row r="2" spans="3:4">
+      <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1">
+        <v>25</v>
+      </c>
+    </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D3" s="1">
         <v>14</v>
@@ -2054,18 +2087,18 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="3:4">
       <c r="C6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D6" s="1">
         <v>15</v>
@@ -2073,29 +2106,29 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" t="s">
         <v>107</v>
       </c>
-      <c r="C8" t="s">
-        <v>106</v>
-      </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="3:4">
       <c r="C9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D9" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1">
         <v>-1</v>
@@ -2103,10 +2136,29 @@
     </row>
     <row r="12" spans="3:4">
       <c r="C12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D12" s="1">
         <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
